--- a/xlsx/_baidu_贾斯汀·比伯_intext.xlsx
+++ b/xlsx/_baidu_贾斯汀·比伯_intext.xlsx
@@ -20,7 +20,7 @@
     <t>贾斯汀·比伯</t>
   </si>
   <si>
-    <t>https://baike.baidu.com/view/2320014.htm</t>
+    <t>https://baike.baidu.com/view/4387686.htm</t>
   </si>
   <si>
     <t>https://baike.baidu.com/item/YouTube</t>
